--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,46 @@
   </si>
   <si>
     <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭子晖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,13 +411,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -400,6 +444,52 @@
       </c>
       <c r="G1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2015211232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2015211304</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2014211232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>2015211333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -402,6 +402,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>111</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,46 +46,6 @@
   </si>
   <si>
     <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭子晖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学与技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学与技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,17 +371,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -448,48 +404,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2015211232</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>111</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>2015211304</v>
-      </c>
-      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2014211232</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>2015211333</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -371,13 +371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -404,7 +407,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>111</v>
+        <v>2015211232</v>
       </c>
       <c r="B2">
         <v>111</v>
@@ -422,6 +425,29 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2015211242</v>
+      </c>
+      <c r="B3">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>111</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>11</v>
       </c>
     </row>
